--- a/画面設計/【画面設計】08_質問回答画面.xlsx
+++ b/画面設計/【画面設計】08_質問回答画面.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>ログインしたいユーザのID（メールアドレス）（06_ユーザ管理）に紐づく、パスワードを忘れた場合の質問を表示させて、それに紐づく質問の回答を入力して、パスワード再設定画面（09_パスワード再登録）へ遷移すること。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -439,8 +442,8 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2121,7 +2124,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -2869,7 +2872,9 @@
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="32"/>
+      <c r="B26" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2977,7 +2982,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3007,13 +3012,13 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3153,7 +3158,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3183,10 +3188,10 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="6"/>
@@ -3383,14 +3388,14 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3415,14 +3420,14 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3447,30 +3452,30 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -3547,14 +3552,14 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
       <c r="G49" s="53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49" s="53"/>
       <c r="I49" s="53"/>
@@ -3579,30 +3584,30 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="54"/>
       <c r="B50" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="54"/>
       <c r="G50" s="55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I50" s="55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J50" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K50" s="55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
@@ -3763,30 +3768,30 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="54"/>
       <c r="B56" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="54"/>
       <c r="G56" s="55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I56" s="55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J56" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K56" s="55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
@@ -3863,14 +3868,14 @@
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="24"/>
       <c r="B59" s="53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
       <c r="G59" s="53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H59" s="53"/>
       <c r="I59" s="53"/>
@@ -3895,30 +3900,30 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="54"/>
       <c r="B60" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="54"/>
       <c r="G60" s="55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H60" s="55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I60" s="55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J60" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K60" s="55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
@@ -29730,11 +29735,11 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B26:H28"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B26:H28"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -29850,7 +29855,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="68"/>
       <c r="B4" s="68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -29878,10 +29883,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="68"/>

--- a/画面設計/【画面設計】08_質問回答画面.xlsx
+++ b/画面設計/【画面設計】08_質問回答画面.xlsx
@@ -153,10 +153,8 @@
 （非活性）</t>
   </si>
   <si>
-    <t>固定文言で以下の質問を設定する。
-1:母親の旧姓は？
-2:好きな歌手は？
-3:好きな番組は？
+    <t>固定文言で定数一覧.パスワードを忘れた場合の質問を全て取得して、
+ラベル「（パスワードを忘れた場合の質問.定数名）」の内容で表示する。
 上記のうち、前画面（07_ID入力画面）で入力されたユーザIDに紐づく、パスワード忘れた時の質問IDをもとに質問を選択させる。
 質問は変更できないように非活性にする。</t>
   </si>
@@ -3509,7 +3507,7 @@
       <c r="Y43" s="24"/>
       <c r="Z43" s="24"/>
     </row>
-    <row r="44" ht="108.0" customHeight="1">
+    <row r="44" ht="75.75" customHeight="1">
       <c r="A44" s="51"/>
       <c r="B44" s="53" t="s">
         <v>42</v>
@@ -29099,8 +29097,8 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="B26:H28"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C41:D41"/>
   </mergeCells>
   <printOptions/>
